--- a/DB_FOMC_Meetings.xlsx
+++ b/DB_FOMC_Meetings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89e641decbd7465a/Escritorio/FOMC Meetings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89e641decbd7465a/Escritorio/Github/FOMC_Forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{E77AD7D0-3AAD-4081-AA7D-423C21C21C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6DE0D8-4DDE-43C8-A41A-670ED348D251}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{E77AD7D0-3AAD-4081-AA7D-423C21C21C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE257348-9859-423F-B02B-D65EFA3CCE82}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_FOMC_Meetings" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>FOMC Meetings</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
   <si>
     <t>Low</t>
   </si>
@@ -45,12 +42,18 @@
   <si>
     <t>Increase</t>
   </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>FOMC Meeting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,14 +184,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -540,54 +535,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,9 +600,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +640,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -749,7 +746,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -891,7 +888,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,152 +899,139 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44587</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="A2" s="3">
+        <v>45686</v>
+      </c>
+      <c r="B2" s="2">
+        <v>425</v>
+      </c>
+      <c r="C2" s="2">
+        <v>450</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44626</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B9" si="0">+B2+D2</f>
+      <c r="A3" s="3">
+        <v>45735</v>
+      </c>
+      <c r="B3" s="2">
+        <v>425</v>
+      </c>
+      <c r="C3" s="2">
+        <v>450</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="1">+C2+D2</f>
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44685</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
+      <c r="A4" s="3">
+        <v>45784</v>
+      </c>
+      <c r="B4" s="2">
+        <v>425</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44727</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>75</v>
+      <c r="A5" s="3">
+        <v>45826</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44769</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
+      <c r="A6" s="3">
+        <v>45868</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
+      <c r="A7" s="3">
+        <v>45917</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>44867</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="D8" s="3">
-        <v>25</v>
+      <c r="A8" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44909</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
+      <c r="A9" s="3">
+        <v>46001</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
